--- a/dati.xlsx
+++ b/dati.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\valore_voto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178FE93A-CA35-495C-8874-8030419A8427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E775E9E5-E73A-43B8-8EBB-6D7368410436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sondaggi" sheetId="1" r:id="rId1"/>
     <sheet name="preferenze" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -187,18 +198,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -271,6 +281,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -278,12 +294,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -324,6 +334,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CCF408B-FF2D-4C55-BFA2-8A7FBA54DDA6}" name="Tabella1" displayName="Tabella1" ref="A1:C63" totalsRowShown="0">
   <autoFilter ref="A1:C63" xr:uid="{4CCF408B-FF2D-4C55-BFA2-8A7FBA54DDA6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C63">
+    <sortCondition ref="B1:B63"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DAB51A9E-7BDA-4F43-B8ED-0625E531F187}" name="Sondaggio"/>
     <tableColumn id="2" xr3:uid="{3A109337-17F6-4A37-A3C9-78B171AEBD70}" name="Partito"/>
@@ -334,7 +347,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42FDDE1E-4FA6-46B2-A07F-80D0CB4C3D4D}" name="Tabella2" displayName="Tabella2" ref="A2:B13" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42FDDE1E-4FA6-46B2-A07F-80D0CB4C3D4D}" name="Tabella2" displayName="Tabella2" ref="A2:B13" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A2:B13" xr:uid="{42FDDE1E-4FA6-46B2-A07F-80D0CB4C3D4D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{17271265-1EB7-453C-9DC8-70680C2EED2E}" name="Partito" dataDxfId="1"/>
@@ -609,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,120 +649,120 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>0.27200000000000002</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>0.21299999999999999</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>0.158</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0.27300000000000002</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>0.20300000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>0.159</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,76 +770,76 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>0.10199999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>7.8E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,10 +847,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>0.45500000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,65 +858,65 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>0.27500000000000002</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>0.20499999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>0.17</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,76 +924,76 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>0.02</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
-        <v>0.40400000000000003</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>0.27800000000000002</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
-        <v>0.20300000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,54 +1001,54 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
-        <v>0.158</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1">
-        <v>0.09</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1">
-        <v>4.7E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
-        <v>3.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,26 +1056,26 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1073,46 +1086,46 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>0.45400000000000001</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>0.27900000000000003</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,54 +1133,54 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1">
-        <v>0.16200000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1">
-        <v>3.9E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,65 +1188,65 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>1.2E-2</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,57 +1262,57 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1">
-        <v>0.05</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>0.16</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1">
-        <v>0.02</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,10 +1320,10 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1325,14 +1338,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23EE504-0F92-47E5-80B6-322CE0FD2D84}">
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/dati.xlsx
+++ b/dati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\valore_voto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E775E9E5-E73A-43B8-8EBB-6D7368410436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064BAE88-43EB-4038-AF64-50F6F6D6467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="27">
   <si>
     <t>Partito</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>preferenza</t>
+  </si>
+  <si>
+    <t>Demopolis 7/5</t>
+  </si>
+  <si>
+    <t>BiDiMedia 8/5</t>
+  </si>
+  <si>
+    <t>SWG 6/5</t>
+  </si>
+  <si>
+    <t>Quorum 6/5</t>
+  </si>
+  <si>
+    <t>Termometro politico 3/5</t>
   </si>
 </sst>
 </file>
@@ -332,10 +347,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CCF408B-FF2D-4C55-BFA2-8A7FBA54DDA6}" name="Tabella1" displayName="Tabella1" ref="A1:C63" totalsRowShown="0">
-  <autoFilter ref="A1:C63" xr:uid="{4CCF408B-FF2D-4C55-BFA2-8A7FBA54DDA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CCF408B-FF2D-4C55-BFA2-8A7FBA54DDA6}" name="Tabella1" displayName="Tabella1" ref="A1:C118" totalsRowShown="0">
+  <autoFilter ref="A1:C118" xr:uid="{4CCF408B-FF2D-4C55-BFA2-8A7FBA54DDA6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C63">
-    <sortCondition ref="B1:B63"/>
+    <sortCondition ref="A1:A63"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DAB51A9E-7BDA-4F43-B8ED-0625E531F187}" name="Sondaggio"/>
@@ -620,15 +635,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
   </cols>
@@ -646,35 +661,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>0.04</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,54 +697,54 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>3.9E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.04</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.45500000000000002</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.40400000000000003</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,98 +752,98 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>0.45400000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.34</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>3.9E-2</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>1.2E-2</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,43 +851,43 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,65 +895,65 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.27200000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>0.27300000000000002</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
-        <v>0.27500000000000002</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>0.27800000000000002</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,43 +961,43 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1">
-        <v>0.27900000000000003</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1">
-        <v>7.8E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,54 +1005,54 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>0.09</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,90 +1068,90 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>0.02</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>0.158</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1">
-        <v>0.159</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1">
-        <v>0.158</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>0.16200000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,29 +1159,29 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1">
-        <v>0.16</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1">
         <v>0.02</v>
@@ -1174,35 +1189,35 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>0.21299999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,65 +1225,65 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1">
-        <v>0.20300000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1">
-        <v>0.20300000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
-        <v>0.2</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1">
-        <v>0.05</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,54 +1291,661 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C61" s="1">
-        <v>4.7E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="1">
-        <v>0.05</v>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1">
+        <f>1-0.53</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1">
+        <f>1-AVERAGE(0.52, 0.56)</f>
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
